--- a/instructors.xlsx
+++ b/instructors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitrepos\CURSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14864302-42F7-4319-85A9-08F1BEFDF0AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2B04D5-1480-40C9-A54C-9DA4BADC2AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13500" yWindow="6135" windowWidth="19200" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29070" yWindow="4290" windowWidth="28800" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>MATH</t>
   </si>
   <si>
-    <t>carperntera1</t>
-  </si>
-  <si>
     <t>junsangsrip</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>word10</t>
+  </si>
+  <si>
+    <t>carpentera1</t>
   </si>
 </sst>
 </file>
@@ -529,7 +529,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,10 +554,10 @@
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -577,10 +577,10 @@
         <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -600,10 +600,10 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -623,10 +623,10 @@
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -646,10 +646,10 @@
         <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -669,10 +669,10 @@
         <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -692,10 +692,10 @@
         <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -715,10 +715,10 @@
         <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -738,10 +738,10 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -761,10 +761,10 @@
         <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
